--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value975.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value975.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.33956526293912</v>
+        <v>0.7212032675743103</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.011853933334351</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.355706810951233</v>
       </c>
       <c r="D1">
-        <v>1.193148979948742</v>
+        <v>4.402457237243652</v>
       </c>
       <c r="E1">
-        <v>0.7901011010981674</v>
+        <v>2.389496803283691</v>
       </c>
     </row>
   </sheetData>
